--- a/无尽的边界/阵容1.xlsx
+++ b/无尽的边界/阵容1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="阵容" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>9娜迦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2妖精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1飞龙骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>娜迦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -51,17 +59,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -81,13 +89,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,16 +467,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +488,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -399,21 +496,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50BC50A-ADEB-40E9-B49A-9A166D32C841}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>